--- a/src/test/java/com/inetbanking/testData/LoginData.xlsx
+++ b/src/test/java/com/inetbanking/testData/LoginData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695"/>
+    <workbookView xWindow="0" yWindow="330" windowWidth="14250" windowHeight="3315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -24,28 +25,19 @@
     <t>password</t>
   </si>
   <si>
-    <t>mngr243950</t>
-  </si>
-  <si>
-    <t>vArezEj</t>
-  </si>
-  <si>
     <t>mngr255950</t>
   </si>
   <si>
-    <t>vAgfdfd</t>
-  </si>
-  <si>
     <t>mngr663950</t>
   </si>
   <si>
     <t>vAkkkEj</t>
   </si>
   <si>
-    <t>mngr24f390</t>
-  </si>
-  <si>
-    <t>vArezii</t>
+    <t>mngr247240</t>
+  </si>
+  <si>
+    <t>gEqEhaq</t>
   </si>
 </sst>
 </file>
@@ -402,7 +394,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,44 +413,30 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/test/java/com/inetbanking/testData/LoginData.xlsx
+++ b/src/test/java/com/inetbanking/testData/LoginData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{34081B63-DCCA-40FF-8A37-29ACB48C1E2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="330" windowWidth="14250" windowHeight="3315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="5895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>username</t>
   </si>
@@ -25,25 +26,19 @@
     <t>password</t>
   </si>
   <si>
-    <t>mngr255950</t>
-  </si>
-  <si>
-    <t>mngr663950</t>
-  </si>
-  <si>
     <t>vAkkkEj</t>
   </si>
   <si>
-    <t>mngr247240</t>
+    <t>gUdUzUt</t>
   </si>
   <si>
-    <t>gEqEhaq</t>
+    <t>mngr288332</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,6 +95,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -147,7 +145,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -180,9 +178,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,6 +230,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -390,11 +422,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,26 +445,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25"/>
@@ -444,7 +476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -456,7 +488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
